--- a/data/trans_dic/P70B_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1287882925912588</v>
+        <v>0.1286905168841051</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1142830234009274</v>
+        <v>0.1154376970626724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1339527430728805</v>
+        <v>0.1355711773994058</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2170752618780774</v>
+        <v>0.2211159298579665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1961716589105114</v>
+        <v>0.1973319073613461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1968136753460763</v>
+        <v>0.1964883359242852</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.129517612929643</v>
+        <v>0.1311778854747608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1233909126812991</v>
+        <v>0.1232155476949916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1341701402300573</v>
+        <v>0.134032244422514</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2054420053035372</v>
+        <v>0.1993661505819376</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1839995249844351</v>
+        <v>0.1822204249577534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1828017594390568</v>
+        <v>0.1832369238309619</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1257302512770119</v>
+        <v>0.125730251277012</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1457364588694109</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09101520405659266</v>
+        <v>0.09132210834776872</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1157661001542721</v>
+        <v>0.1099573546432017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1107942895192949</v>
+        <v>0.1079434861139348</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1694062814430098</v>
+        <v>0.168138483130879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1855636578724131</v>
+        <v>0.1849059279153066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1648587983051704</v>
+        <v>0.1632435307760543</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.126496901368979</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.135501240113641</v>
+        <v>0.1355012401136409</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1306839088150278</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09704733642099257</v>
+        <v>0.09466976845790277</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1098541555337126</v>
+        <v>0.1104507532551319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1105048265970105</v>
+        <v>0.1106666371509567</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1658925639094222</v>
+        <v>0.165512886256276</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1674093760094697</v>
+        <v>0.1657559111564554</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1540902202481711</v>
+        <v>0.1543694912934132</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1465927778419483</v>
+        <v>0.1465927778419482</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1456762339920042</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1267502103546216</v>
+        <v>0.1286145764652253</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1293518495717249</v>
+        <v>0.129112472161301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1346764966090855</v>
+        <v>0.1341283474127893</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1644365596317376</v>
+        <v>0.1687750049084545</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1609910208544946</v>
+        <v>0.1629280920102051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1591611997971082</v>
+        <v>0.1595239037408558</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>47259</v>
+        <v>47223</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31312</v>
+        <v>31628</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>85855</v>
+        <v>86892</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79655</v>
+        <v>81138</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53748</v>
+        <v>54066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126144</v>
+        <v>125936</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80364</v>
+        <v>81394</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54632</v>
+        <v>54555</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>142656</v>
+        <v>142509</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>127474</v>
+        <v>123704</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81467</v>
+        <v>80680</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>194363</v>
+        <v>194826</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37202</v>
+        <v>37327</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38573</v>
+        <v>36637</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82202</v>
+        <v>80087</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69243</v>
+        <v>68725</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61829</v>
+        <v>61610</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>122315</v>
+        <v>121117</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49534</v>
+        <v>48320</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48734</v>
+        <v>48999</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>105425</v>
+        <v>105580</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84673</v>
+        <v>84479</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74267</v>
+        <v>73533</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>147007</v>
+        <v>147274</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>241660</v>
+        <v>245215</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>193195</v>
+        <v>192838</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>457920</v>
+        <v>456056</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>313512</v>
+        <v>321784</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>240450</v>
+        <v>243343</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>541172</v>
+        <v>542405</v>
       </c>
     </row>
     <row r="24">
